--- a/data/trans_camb/P1409-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1409-Dificultad-trans_camb.xlsx
@@ -624,7 +624,7 @@
         <v>0.7985184520706832</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>4.301093240018683</v>
+        <v>4.301093240018685</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.29936673438586</v>
+        <v>-1.385749156751909</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7514834808678674</v>
+        <v>0.9770174623520138</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.05625167361050184</v>
+        <v>-0.01617710783608529</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.131205136495702</v>
+        <v>3.267373655044714</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.3198528930830435</v>
+        <v>-0.3011198427360541</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.809023567614536</v>
+        <v>2.843542734393564</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.422811930739771</v>
+        <v>1.439554666586479</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.589341070361511</v>
+        <v>5.547603532514582</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.130604393378301</v>
+        <v>3.22931288495147</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.445073886445024</v>
+        <v>7.508794174652494</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.957923730186283</v>
+        <v>1.852416914434611</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.062940664092312</v>
+        <v>5.985599800762714</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4047085215684649</v>
+        <v>-0.410996363601383</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1893459270473086</v>
+        <v>0.2026383110131396</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.01071397265935903</v>
+        <v>-0.02810225134244006</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.6780688919721846</v>
+        <v>0.8225831717649457</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0910044277049275</v>
+        <v>-0.08754180315133393</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7303452004380719</v>
+        <v>0.8493672807623611</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7655906001821388</v>
+        <v>0.7583361131352917</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.686844962387307</v>
+        <v>2.391989620987257</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.403099748930203</v>
+        <v>1.318856694035266</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.999013880694211</v>
+        <v>2.923736604811587</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.805695281260816</v>
+        <v>0.7579660874051604</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.49258253209211</v>
+        <v>2.469240011405083</v>
       </c>
     </row>
     <row r="10">
@@ -778,7 +778,7 @@
         <v>2.014320953367398</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.609301446647367</v>
+        <v>1.609301446647366</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>1.034528746609092</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.34343540616756</v>
+        <v>-1.480528653667593</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004839555031129931</v>
+        <v>0.1223864780612107</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4290027829200291</v>
+        <v>0.5741865243263622</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2277486734350454</v>
+        <v>0.2050589495747116</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.08547017942559944</v>
+        <v>0.08596287198965297</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6895686000573917</v>
+        <v>0.528961223333724</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.28458817746566</v>
+        <v>1.180508034860734</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.247194050849056</v>
+        <v>3.336384357139075</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.720525191751931</v>
+        <v>3.693874795324442</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.987826339607456</v>
+        <v>2.881754398368147</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.017919169440454</v>
+        <v>2.136159791265419</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.856275226438526</v>
+        <v>2.751743642736338</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         <v>0.8763666834702974</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.7001556376329213</v>
+        <v>0.7001556376329208</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4731979326382287</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4884151437928917</v>
+        <v>-0.5305531711401551</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.02190644634093195</v>
+        <v>0.005040421419568862</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.07908422213568726</v>
+        <v>0.1633596404844791</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.03660051681473783</v>
+        <v>0.05769895207350429</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.03165560245673736</v>
+        <v>0.002986647069963129</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.180234292589074</v>
+        <v>0.1927711871255019</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.950993210741179</v>
+        <v>0.8913592495864724</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.343666857353888</v>
+        <v>2.23562147471013</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.079558215153938</v>
+        <v>2.198562130555814</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.893066893405422</v>
+        <v>1.640968662930453</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.150861331386694</v>
+        <v>1.218532927432346</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.635460459257812</v>
+        <v>1.532896442462549</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.1528704331755026</v>
+        <v>-0.1221460411951153</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.797629767886007</v>
+        <v>0.8015225293458614</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.461190142565531</v>
+        <v>-1.413650564680844</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09139249889615446</v>
+        <v>0.293661713645565</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.41937174280374</v>
+        <v>-0.4974644040664187</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9403067442517552</v>
+        <v>0.8329870685281003</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.41164887312231</v>
+        <v>2.742096485392435</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.857042413887277</v>
+        <v>3.859071553730663</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.916017795890635</v>
+        <v>1.92706221457121</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.338935670210218</v>
+        <v>3.475773947977904</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.786236471039838</v>
+        <v>1.789285782782582</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.069293506149308</v>
+        <v>3.169596797202187</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1600131449753015</v>
+        <v>-0.1286287505771433</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.3348062675595349</v>
+        <v>0.3759917427277423</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4163338653683286</v>
+        <v>-0.4210039824058575</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.0105554666868997</v>
+        <v>0.04469102556188493</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1897804453052779</v>
+        <v>-0.199255168743234</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3667791417752934</v>
+        <v>0.266848927474311</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.321922726641109</v>
+        <v>3.463791196161842</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>4.917578209394541</v>
+        <v>5.130656883150984</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.129057470570435</v>
+        <v>1.073227363686499</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.770595088823683</v>
+        <v>1.91410054021331</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.194869090349295</v>
+        <v>1.227006296769425</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.110879025538354</v>
+        <v>2.0863248993807</v>
       </c>
     </row>
     <row r="22">
@@ -1098,7 +1098,7 @@
         <v>0.06705954535696744</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.045958636554098</v>
+        <v>1.045958636554099</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>1.240404352993734</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5131932522407388</v>
+        <v>0.6278698944756433</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5768194236006546</v>
+        <v>0.847415080521257</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.946312893126896</v>
+        <v>-2.056698508010728</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.03871681873679</v>
+        <v>-1.02279192841924</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.179566659341754</v>
+        <v>-0.08740838758129812</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4047011345445756</v>
+        <v>0.4941276333590262</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.22398101946752</v>
+        <v>4.458851261568935</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.38952549159482</v>
+        <v>4.782131727372215</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.229504546436866</v>
+        <v>2.056008306346615</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.691328248857016</v>
+        <v>2.711821050085482</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.713868216340726</v>
+        <v>2.797889816347417</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.107835608744203</v>
+        <v>3.240950905463422</v>
       </c>
     </row>
     <row r="25">
@@ -1176,7 +1176,7 @@
         <v>0.02562812347304517</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.3997336537641958</v>
+        <v>0.3997336537641961</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6695170163632819</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.02984274990461519</v>
+        <v>0.2698807775383216</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1769281444225457</v>
+        <v>0.1926952850096879</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5429606863806529</v>
+        <v>-0.5686765540485648</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2827312991517905</v>
+        <v>-0.2390733452620599</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1213095988201955</v>
+        <v>-0.05858690106795079</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1316395109781127</v>
+        <v>0.1643864617181376</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6.63039691276064</v>
+        <v>8.450458398905926</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7.704435043607559</v>
+        <v>9.169802645585479</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.356815939038089</v>
+        <v>1.321975006024626</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.781677577313293</v>
+        <v>1.797759179591719</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.085171686128142</v>
+        <v>2.267151533831985</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.344422159608869</v>
+        <v>2.535397228187933</v>
       </c>
     </row>
     <row r="28">
@@ -1264,7 +1264,7 @@
         <v>0.9255674116378121</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.047831171909515</v>
+        <v>2.047831171909514</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.1387121301815817</v>
+        <v>-0.160211098639233</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.047336449158231</v>
+        <v>1.181278851779545</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3336374201111169</v>
+        <v>0.4102053552024869</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.257676246644915</v>
+        <v>1.25869780813196</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.3255073191857899</v>
+        <v>0.3117227422702068</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.462541426565612</v>
+        <v>1.438055445205121</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.321997456240381</v>
+        <v>1.294948945640226</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.90358663919815</v>
+        <v>2.859403460774816</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.156122277092502</v>
+        <v>2.195251387566968</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.973056059377841</v>
+        <v>2.920454344262103</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.492274407764046</v>
+        <v>1.472148679002705</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.707428792281637</v>
+        <v>2.717809756659031</v>
       </c>
     </row>
     <row r="31">
@@ -1342,7 +1342,7 @@
         <v>0.397914277416599</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.8803910453152691</v>
+        <v>0.8803910453152689</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.06501107113661478</v>
+        <v>-0.07066709247216491</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.4619636388819398</v>
+        <v>0.5083663924495166</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.08986240343010313</v>
+        <v>0.1244442089719941</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4071367639502937</v>
+        <v>0.3965475913913463</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1223869705246467</v>
+        <v>0.1193497426855881</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5628258143076081</v>
+        <v>0.5544602261949064</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8346862212463019</v>
+        <v>0.8322001193482529</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.789686172428185</v>
+        <v>1.760120207425692</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.929222055685923</v>
+        <v>0.9242996722250203</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.297719365822295</v>
+        <v>1.312375876646289</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7132691210064541</v>
+        <v>0.729655776951544</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.30785271438788</v>
+        <v>1.296449575773225</v>
       </c>
     </row>
     <row r="34">
